--- a/assets/disciplinas/LOM3255.xlsx
+++ b/assets/disciplinas/LOM3255.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,16 +70,19 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os conceitos básicos e desenvolver projetos de Engenharia.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,13 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Desenvolver através de atividades de projeto a aplicação dos conhecimentos adquiridos nas disciplinas de
-Cálculo, Física e Química. Desenvolver competências de trabalho em equipe, comunicação oral e escrita,
-resolução de problemas, pensamento crítico, pensamento criativo, metodologia de desenvolvimento de projetos
-visando ao desenvolvimento de competências transversais (soft skills) através de desenvolvimento de projetos
-de Engenharia.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -102,14 +98,6 @@
   </si>
   <si>
     <t>Método:</t>
-  </si>
-  <si>
-    <t>1. Conhecer modelos de elaboração de projetos: modelo canvas e metodologia PMBOK
-2. Elaborar projeto: definição da problemática, justificativas, objetivos e hipóteses, bases teóricas fundamentais,
-metodologia, cronograma, resultados esperados.
-3. Executar as etapas do projeto, reavaliando eventuais mudanças de direcionamento.
-4. Finalizar o projeto redigindo o relatório e avaliando os resultados finais.
-5. Apresentação de protótipo.</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -486,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,85 +594,90 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
